--- a/Recognizer-master/HMM - Output.xlsx
+++ b/Recognizer-master/HMM - Output.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Problem 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="27">
   <si>
     <t>Features</t>
   </si>
@@ -60,14 +62,67 @@
   </si>
   <si>
     <t>features_custom = ['delta-polar-rr', 'delta-polar-rtheta', 'delta-polar-lr', 'delta-polar-ltheta']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">features_custom </t>
+  </si>
+  <si>
+    <t>normalize the polar coordinates</t>
+  </si>
+  <si>
+    <t>adding additional deltas</t>
+  </si>
+  <si>
+    <t>normalize using a feature scaling equation</t>
+  </si>
+  <si>
+    <t>features_custom = ['norm-polar-rr', 'norm-polar-rtheta', 'norm-polar-lr', 'norm-polar-ltheta', 'delta-polar-rr','delta-polar-rtheta','delta-polar-lr','delta-polar-ltheta']</t>
+  </si>
+  <si>
+    <t>Selector</t>
+  </si>
+  <si>
+    <t>WER</t>
+  </si>
+  <si>
+    <t>Scenario I</t>
+  </si>
+  <si>
+    <t>SelectorConstant</t>
+  </si>
+  <si>
+    <t>SelectorCV</t>
+  </si>
+  <si>
+    <t>SelectorBIC</t>
+  </si>
+  <si>
+    <t>SelectorDIC</t>
+  </si>
+  <si>
+    <t>Correct Words</t>
+  </si>
+  <si>
+    <t>feature_norm</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,13 +146,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -380,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,13 +658,932 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A6 A8:A11 A16:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A6 A8:A11 A16:A17 A32:A1048576 A19:A22 A24:A27">
       <formula1>$F$2:$F$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.48876404494381998</v>
+      </c>
+      <c r="E2" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.54494382022471899</v>
+      </c>
+      <c r="E3" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.54494382022471899</v>
+      </c>
+      <c r="E4" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.54494382022471899</v>
+      </c>
+      <c r="E5" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="E6" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.56741573033707804</v>
+      </c>
+      <c r="E7" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <f>A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.57303370786516805</v>
+      </c>
+      <c r="E8" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.59550561797752799</v>
+      </c>
+      <c r="E9" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.601123595505618</v>
+      </c>
+      <c r="E10" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.601123595505618</v>
+      </c>
+      <c r="E11" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.61235955056179703</v>
+      </c>
+      <c r="E12" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.61235955056179703</v>
+      </c>
+      <c r="E13" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.61235955056179703</v>
+      </c>
+      <c r="E14" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <f>A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.61797752808988704</v>
+      </c>
+      <c r="E15" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.61797752808988704</v>
+      </c>
+      <c r="E16" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.62359550561797705</v>
+      </c>
+      <c r="E17" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.62921348314606695</v>
+      </c>
+      <c r="E18" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.64044943820224698</v>
+      </c>
+      <c r="E19" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <f>A19+1</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.66853932584269604</v>
+      </c>
+      <c r="E20" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <f>A20+1</f>
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.66853932584269604</v>
+      </c>
+      <c r="E21" s="3">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E21">
+    <sortCondition ref="D2:D21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.64044943820224698</v>
+      </c>
+      <c r="E2" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.61235955056179703</v>
+      </c>
+      <c r="E3" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.61797752808988704</v>
+      </c>
+      <c r="E4" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.62921348314606695</v>
+      </c>
+      <c r="E5" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.601123595505618</v>
+      </c>
+      <c r="E6" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.54494382022471899</v>
+      </c>
+      <c r="E7" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.48876404494381998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.56741573033707804</v>
+      </c>
+      <c r="E9" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.62359550561797705</v>
+      </c>
+      <c r="E10" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.66853932584269604</v>
+      </c>
+      <c r="E11" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.61235955056179703</v>
+      </c>
+      <c r="E12" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.59550561797752799</v>
+      </c>
+      <c r="E13" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.61797752808988704</v>
+      </c>
+      <c r="E14" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.61235955056179703</v>
+      </c>
+      <c r="E15" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.54494382022471899</v>
+      </c>
+      <c r="E16" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.54494382022471899</v>
+      </c>
+      <c r="E17" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.66853932584269604</v>
+      </c>
+      <c r="E18" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.601123595505618</v>
+      </c>
+      <c r="E19" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="E20" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.57303370786516805</v>
+      </c>
+      <c r="E21" s="1">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>